--- a/assets/Schedules/stiSched.xlsx
+++ b/assets/Schedules/stiSched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILES\COLLEGE\3rd Year\2nd Sem\Thesis 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILES\COLLEGE\Thesis Code\STI ONN\assets\Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7C61D3D-E935-4404-B2AA-98FA22054D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926097B9-43D6-4363-A8B4-B3B90131BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55863BE4-401B-4882-B69A-C4E923D00DFC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
   <si>
     <t>Time</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>6:30 - 7:00</t>
+  </si>
+  <si>
+    <t>TM OJT 
+BSTM 801
+PINE 
+RM 301</t>
+  </si>
+  <si>
+    <t>STS
+BSBA 201 
+MANCILLA
+RM 301</t>
   </si>
   <si>
     <t xml:space="preserve">INFOMNGT - LEC
@@ -136,24 +148,97 @@
 </t>
   </si>
   <si>
-    <t>STS
-BSBA 201 
-MANCILLA
-RM 301</t>
-  </si>
-  <si>
-    <t>TOURHOSPRIN2
-HRS201
-CABRERA
-RM301</t>
-  </si>
-  <si>
     <t>INFOMNGT - LEC
 BSCS 401
 PALMONES
 RM 301</t>
   </si>
   <si>
+    <t>IAS CF - LEC
+BSIT 601
+CUENCA
+RM 301</t>
+  </si>
+  <si>
+    <t>WIRCC
+STEM22
+DELOS REYES
+RM301</t>
+  </si>
+  <si>
+    <t>COMPARC
+BSCS401
+MERCADO 
+RM301</t>
+  </si>
+  <si>
+    <t>CPE ELEC2 -
+ NETWORK1 - LEC
+BSCPE601
+ALDEMITA
+RM301</t>
+  </si>
+  <si>
+    <t>INTCUR - LEC 
+BSHM401
+LAMIS
+RM301</t>
+  </si>
+  <si>
+    <t>TOURHOSPRIN2
+HRS201
+CABRERA
+RM301</t>
+  </si>
+  <si>
+    <t>MOBITECH - LEC
+BSIT 601
+CABAHUG
+RM301</t>
+  </si>
+  <si>
+    <t>ADVERTIVE - LEC 
+BMMA 601
+MARANTAL
+RM301</t>
+  </si>
+  <si>
+    <t>ADVERTIVE - LEC 
+BMMA601
+MARANTAL
+RM301</t>
+  </si>
+  <si>
+    <t>BANCAT - LEC
+HRS 401
+CABRERA
+RM301</t>
+  </si>
+  <si>
+    <t>CULINARY - LEC 
+HRS201
+MENDOZA
+RM301</t>
+  </si>
+  <si>
+    <t>WESCUIS - LEC 
+HRS401
+CABRERA
+RM301</t>
+  </si>
+  <si>
+    <t>COMORG
+BSCS601
+MERCADO
+RM301</t>
+  </si>
+  <si>
+    <t>SOFTDES - LEC
+BSCPE 401 
+BROFAR
+RM301</t>
+  </si>
+  <si>
     <t>IT ELEC3
 PROLANS - LEC
 BSIT 601
@@ -161,173 +246,88 @@
 RM301</t>
   </si>
   <si>
+    <t>IT - ELEC3 
+PROLANS - LEC
+BSIT 602
+MINGO
+RM301</t>
+  </si>
+  <si>
+    <t>SAP - LEC
+BSIT403
+MINGO
+RM301</t>
+  </si>
+  <si>
     <t>KEB - LEC
 BSHM 201
 LAMIS
 RM 301</t>
   </si>
   <si>
+    <t>CATERING - LEC 
+BSHM 602
+PINE
+RM301</t>
+  </si>
+  <si>
+    <t>MGASTRO - LEC 
+BSHM 602
+PINE
+RM301</t>
+  </si>
+  <si>
     <t>INTERPROG - LEC 
 BSIT 403
 PALMONES
 RM301</t>
   </si>
   <si>
+    <t>SOFTENG2 - LEC 
+BSCS 601
+BROFAR
+RM301</t>
+  </si>
+  <si>
+    <t>COMPRO 2 - LEC
+BSIT203
+CABAHUG
+RM301</t>
+  </si>
+  <si>
+    <t>COPRO2 - LEC 
+BSIT203
+CABAHUG 
+RM301</t>
+  </si>
+  <si>
     <t>PROLANS - LEC
 BSCS 601
 MINGO
 RM301</t>
   </si>
   <si>
+    <t>MOBITECH - LEC
+BSIT 602
+CABAHUG
+RM301</t>
+  </si>
+  <si>
+    <t>INTERPROG - LAB 
+BSIT402
+PALMONES
+RM301</t>
+  </si>
+  <si>
     <t>INTCALC
 BSCPE 201
 VILLAFLORES
 RM301</t>
   </si>
   <si>
-    <t>IAS CF - LEC
-BSIT 601
-CUENCA
-RM 301</t>
-  </si>
-  <si>
-    <t>CPE ELEC2 -
- NETWORK1 - LEC
-BSCPE601
-ALDEMITA
-RM301</t>
-  </si>
-  <si>
-    <t>MOBITECH - LEC
-BSIT 601
-CABAHUG
-RM301</t>
-  </si>
-  <si>
-    <t>BANCAT - LEC
-HRS 401
-CABRERA
-RM301</t>
-  </si>
-  <si>
-    <t>SOFTDES - LEC
-BSCPE 401 
-BROFAR
-RM301</t>
-  </si>
-  <si>
-    <t>IT - ELEC3 
-PROLANS - LEC
-BSIT 602
-MINGO
-RM301</t>
-  </si>
-  <si>
-    <t>CATERING - LEC 
-BSHM 602
-PINE
-RM301</t>
-  </si>
-  <si>
-    <t>SOFTENG2 - LEC 
-BSCS 601
-BROFAR
-RM301</t>
-  </si>
-  <si>
-    <t>MOBITECH - LEC
-BSIT 602
-CABAHUG
-RM301</t>
-  </si>
-  <si>
     <t>PURPOCOM 
 BSIT602
 LUCENA
-RM301</t>
-  </si>
-  <si>
-    <t>TM OJT 
-BSTM 801
-PINE 
-RM 301</t>
-  </si>
-  <si>
-    <t>WIRCC
-STEM22
-DELOS REYES
-RM301</t>
-  </si>
-  <si>
-    <t>INTCUR - LEC 
-BSHM401
-LAMIS
-RM301</t>
-  </si>
-  <si>
-    <t>ADVERTIVE - LEC 
-BMMA 601
-MARANTAL
-RM301</t>
-  </si>
-  <si>
-    <t>CULINARY - LEC 
-HRS201
-MENDOZA
-RM301</t>
-  </si>
-  <si>
-    <t>SAP - LEC
-BSIT403
-MINGO
-RM301</t>
-  </si>
-  <si>
-    <t>COMPRO 2 - LEC
-BSIT203
-CABAHUG
-RM301</t>
-  </si>
-  <si>
-    <t>INTERPROG - LAB 
-BSIT402
-PALMONES
-RM301</t>
-  </si>
-  <si>
-    <t>WESCUIS - LEC 
-HRS401
-CABRERA
-RM301</t>
-  </si>
-  <si>
-    <t>MGASTRO - LEC 
-BSHM 602
-PINE
-RM301</t>
-  </si>
-  <si>
-    <t>COMPARC
-BSCS401
-MERCADO 
-RM301</t>
-  </si>
-  <si>
-    <t>ADVERTIVE - LEC 
-BMMA601
-MARANTAL
-RM301</t>
-  </si>
-  <si>
-    <t>COMORG
-BSCS601
-MERCADO
-RM301</t>
-  </si>
-  <si>
-    <t>COPRO2 - LEC 
-BSIT203
-CABAHUG 
 RM301</t>
   </si>
 </sst>
@@ -398,29 +398,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0121FDB9-FB33-4371-A2EE-408B66A5C16D}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,323 +748,430 @@
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3" t="s">
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3" t="s">
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3" t="s">
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2"/>
@@ -1080,139 +1181,110 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>49</v>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>49</v>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/Schedules/stiSched.xlsx
+++ b/assets/Schedules/stiSched.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILES\COLLEGE\Thesis Code\STI ONN\assets\Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926097B9-43D6-4363-A8B4-B3B90131BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C13D29-DD0A-4AD8-A049-81BCE19382B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55863BE4-401B-4882-B69A-C4E923D00DFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{55863BE4-401B-4882-B69A-C4E923D00DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Room 301" sheetId="1" r:id="rId1"/>
+    <sheet name="Room 302" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="94">
   <si>
     <t>Time</t>
   </si>
@@ -330,12 +331,166 @@
 LUCENA
 RM301</t>
   </si>
+  <si>
+    <t>NETWORK1 - LEC
+BSIT 402
+ORUGA</t>
+  </si>
+  <si>
+    <t>KEB - LEC 
+BSHM 204
+PINE</t>
+  </si>
+  <si>
+    <t>STRATMAN 
+BSHM 602
+BSBA 602
+BOBIS</t>
+  </si>
+  <si>
+    <t>PQTOOLS - LEC
+BSBA 202
+BOBIS</t>
+  </si>
+  <si>
+    <t>SAM - LEC 
+BSIT 204
+ORUGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACT RESEARCH - LEC
+BSA 601
+LUCIDO </t>
+  </si>
+  <si>
+    <t>KEB - LEC 
+BSHM 201
+LAMIS</t>
+  </si>
+  <si>
+    <t>SAM - LEC 
+BSIT 201
+ORUGA</t>
+  </si>
+  <si>
+    <t>POP - LEC 
+BSTM 601
+ATIENZA</t>
+  </si>
+  <si>
+    <t>GAMEPROG - LEC
+BSCS 601
+DALUDADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPPP - LEC 
+BSTM 401
+BUSALPA
+</t>
+  </si>
+  <si>
+    <t>BANCATT - LEC 
+HRS 401
+CABRERA</t>
+  </si>
+  <si>
+    <t>MMA FELEC2 
+ADVWEBDESIGN - LEC
+BMMA 601
+DALUDADO</t>
+  </si>
+  <si>
+    <t>SAM - LEC 
+BSIT 202
+ORUGA</t>
+  </si>
+  <si>
+    <t>COPRO 2 - LEC 
+BSIT 201
+CABAHUG</t>
+  </si>
+  <si>
+    <t>SAM - LEC 
+BSIT 203
+ORUGA</t>
+  </si>
+  <si>
+    <t>EPDESIGN - LEC 
+BMMA 201
+REMOQUILLO</t>
+  </si>
+  <si>
+    <t>ETHICS 
+BSIT 201
+QUIZANA</t>
+  </si>
+  <si>
+    <t>WESCUIS - LEC 
+HRS 401
+CABRERA</t>
+  </si>
+  <si>
+    <t>NETWORK1 - LEC
+BSIT 401
+ORUGA</t>
+  </si>
+  <si>
+    <t>KEB - LEC 
+BSHM 203
+PINE</t>
+  </si>
+  <si>
+    <t>KEB - LEC 
+BSHM 202
+LAMIS</t>
+  </si>
+  <si>
+    <t>TM OJT 
+BSTM 801
+PINE</t>
+  </si>
+  <si>
+    <t>COPRO2 - LEC 
+BSIT 202 
+CABAHUG</t>
+  </si>
+  <si>
+    <t>HM OJT 
+BSHM 801
+MALTO</t>
+  </si>
+  <si>
+    <t>INTEPROG - LAB
+BSIT 401
+PALMONES</t>
+  </si>
+  <si>
+    <t>INFOMAGT - LEC
+BSIT 402
+PALMONES</t>
+  </si>
+  <si>
+    <t>ETHICS 
+BSCS 401
+BSBA 202
+ATIENZA</t>
+  </si>
+  <si>
+    <t>FILPROD - LEC 
+BMMA 601
+REMOQUILLO</t>
+  </si>
+  <si>
+    <t>EPDESIGN - LEC 
+BMMA 202
+REMOQUILLO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,8 +505,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +530,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -398,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -415,6 +583,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0121FDB9-FB33-4371-A2EE-408B66A5C16D}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,4 +1458,537 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736D60E9-7251-4C66-819B-578F08BB8B75}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/Schedules/stiSched.xlsx
+++ b/assets/Schedules/stiSched.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILES\COLLEGE\Thesis Code\STI ONN\assets\Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C13D29-DD0A-4AD8-A049-81BCE19382B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B277340-A40B-476D-8832-B7CD10422FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{55863BE4-401B-4882-B69A-C4E923D00DFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{55863BE4-401B-4882-B69A-C4E923D00DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Room 301" sheetId="1" r:id="rId1"/>
     <sheet name="Room 302" sheetId="2" r:id="rId2"/>
+    <sheet name="Room 303" sheetId="3" r:id="rId3"/>
+    <sheet name="Room 304" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="115">
   <si>
     <t>Time</t>
   </si>
@@ -484,6 +486,114 @@
     <t>EPDESIGN - LEC 
 BMMA 202
 REMOQUILLO</t>
+  </si>
+  <si>
+    <t>ART APP 
+BSBA 402
+BSIT 204
+PUBLICO</t>
+  </si>
+  <si>
+    <t>MIS 
+BSIT 601
+GONZALEZ</t>
+  </si>
+  <si>
+    <t>QUANTIMET
+BSIT 403
+ALDEMITA</t>
+  </si>
+  <si>
+    <t>POP 
+BSHM 601
+ENG</t>
+  </si>
+  <si>
+    <t>QUANTIMET
+BSIT 401
+ALDEMITA</t>
+  </si>
+  <si>
+    <t>QUANTIMET
+BSIT 402
+ALDEMITA</t>
+  </si>
+  <si>
+    <t>PURPOCOM
+BSTM 201
+UNIDA</t>
+  </si>
+  <si>
+    <t>ENTREPHM
+BSHM 601
+CABRERA</t>
+  </si>
+  <si>
+    <t>PANIPIL 
+BMMA 601
+PALOMAR</t>
+  </si>
+  <si>
+    <t>ART APP
+BSIT 202
+PUBLICO</t>
+  </si>
+  <si>
+    <t>NEW MEDIA
+BMMA 401
+REMOQUILLO</t>
+  </si>
+  <si>
+    <t>GBOOKS
+BSIT 601
+LUCENA</t>
+  </si>
+  <si>
+    <t>STS
+BSBA 202
+MANCILLA</t>
+  </si>
+  <si>
+    <t>STS
+BSTM 401
+DELOS REYES</t>
+  </si>
+  <si>
+    <t>MOR 
+BMMA 601
+BMMA 602
+MARANTAL</t>
+  </si>
+  <si>
+    <t>FILPROD - LEC 
+BMMA 602
+REMOQUILLO</t>
+  </si>
+  <si>
+    <t>TOURDEVT 
+BSTM 401
+BUSALPA</t>
+  </si>
+  <si>
+    <t>STS 
+BSTM 402 
+DELOS REYES</t>
+  </si>
+  <si>
+    <t>ETHICS 
+BSIT 202
+QUIZANA</t>
+  </si>
+  <si>
+    <t>ETHICS 
+BMMA 202
+BSIT 204
+QUIZANA</t>
+  </si>
+  <si>
+    <t>PURPOCOM
+BSCPE 201
+LUCENA</t>
   </si>
 </sst>
 </file>
@@ -566,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -586,6 +696,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736D60E9-7251-4C66-819B-578F08BB8B75}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection sqref="A1:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,4 +2104,868 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D51AFDD-2C99-49F3-A42D-9A1C179477AD}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6C77E1-DBFC-4346-9675-49D953C629C5}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/Schedules/stiSched.xlsx
+++ b/assets/Schedules/stiSched.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILES\COLLEGE\Thesis Code\STI ONN\assets\Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B277340-A40B-476D-8832-B7CD10422FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C19B761-4E4B-40A7-A29C-D6739FEA13B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{55863BE4-401B-4882-B69A-C4E923D00DFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{55863BE4-401B-4882-B69A-C4E923D00DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Room 301" sheetId="1" r:id="rId1"/>
     <sheet name="Room 302" sheetId="2" r:id="rId2"/>
     <sheet name="Room 303" sheetId="3" r:id="rId3"/>
     <sheet name="Room 304" sheetId="4" r:id="rId4"/>
+    <sheet name="Room 305" sheetId="5" r:id="rId5"/>
+    <sheet name="Room 306" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="163">
   <si>
     <t>Time</t>
   </si>
@@ -130,12 +132,6 @@
   </si>
   <si>
     <t>6:30 - 7:00</t>
-  </si>
-  <si>
-    <t>TM OJT 
-BSTM 801
-PINE 
-RM 301</t>
   </si>
   <si>
     <t>STS
@@ -157,31 +153,12 @@
 RM 301</t>
   </si>
   <si>
-    <t>IAS CF - LEC
-BSIT 601
-CUENCA
-RM 301</t>
-  </si>
-  <si>
     <t>WIRCC
 STEM22
 DELOS REYES
 RM301</t>
   </si>
   <si>
-    <t>COMPARC
-BSCS401
-MERCADO 
-RM301</t>
-  </si>
-  <si>
-    <t>CPE ELEC2 -
- NETWORK1 - LEC
-BSCPE601
-ALDEMITA
-RM301</t>
-  </si>
-  <si>
     <t>INTCUR - LEC 
 BSHM401
 LAMIS
@@ -206,39 +183,9 @@
 RM301</t>
   </si>
   <si>
-    <t>ADVERTIVE - LEC 
-BMMA601
-MARANTAL
-RM301</t>
-  </si>
-  <si>
-    <t>BANCAT - LEC
-HRS 401
-CABRERA
-RM301</t>
-  </si>
-  <si>
     <t>CULINARY - LEC 
 HRS201
 MENDOZA
-RM301</t>
-  </si>
-  <si>
-    <t>WESCUIS - LEC 
-HRS401
-CABRERA
-RM301</t>
-  </si>
-  <si>
-    <t>COMORG
-BSCS601
-MERCADO
-RM301</t>
-  </si>
-  <si>
-    <t>SOFTDES - LEC
-BSCPE 401 
-BROFAR
 RM301</t>
   </si>
   <si>
@@ -249,61 +196,12 @@
 RM301</t>
   </si>
   <si>
-    <t>IT - ELEC3 
-PROLANS - LEC
-BSIT 602
-MINGO
-RM301</t>
-  </si>
-  <si>
     <t>SAP - LEC
 BSIT403
 MINGO
 RM301</t>
   </si>
   <si>
-    <t>KEB - LEC
-BSHM 201
-LAMIS
-RM 301</t>
-  </si>
-  <si>
-    <t>CATERING - LEC 
-BSHM 602
-PINE
-RM301</t>
-  </si>
-  <si>
-    <t>MGASTRO - LEC 
-BSHM 602
-PINE
-RM301</t>
-  </si>
-  <si>
-    <t>INTERPROG - LEC 
-BSIT 403
-PALMONES
-RM301</t>
-  </si>
-  <si>
-    <t>SOFTENG2 - LEC 
-BSCS 601
-BROFAR
-RM301</t>
-  </si>
-  <si>
-    <t>COMPRO 2 - LEC
-BSIT203
-CABAHUG
-RM301</t>
-  </si>
-  <si>
-    <t>COPRO2 - LEC 
-BSIT203
-CABAHUG 
-RM301</t>
-  </si>
-  <si>
     <t>PROLANS - LEC
 BSCS 601
 MINGO
@@ -316,24 +214,6 @@
 RM301</t>
   </si>
   <si>
-    <t>INTERPROG - LAB 
-BSIT402
-PALMONES
-RM301</t>
-  </si>
-  <si>
-    <t>INTCALC
-BSCPE 201
-VILLAFLORES
-RM301</t>
-  </si>
-  <si>
-    <t>PURPOCOM 
-BSIT602
-LUCENA
-RM301</t>
-  </si>
-  <si>
     <t>NETWORK1 - LEC
 BSIT 402
 ORUGA</t>
@@ -594,6 +474,354 @@
     <t>PURPOCOM
 BSCPE 201
 LUCENA</t>
+  </si>
+  <si>
+    <t>DISCRETE 1 
+BSIT 202
+VILLAFLORES</t>
+  </si>
+  <si>
+    <t>POP 
+BSBA 401
+ATIENZA</t>
+  </si>
+  <si>
+    <t>ART APP
+BSBA 401
+ATIENZA</t>
+  </si>
+  <si>
+    <t>NSTP 2 
+BSIT 201
+ACO</t>
+  </si>
+  <si>
+    <t>PURPOCOM
+BSIT 201
+UNIDA</t>
+  </si>
+  <si>
+    <t>PR1
+CULARTS 11
+CANICULA</t>
+  </si>
+  <si>
+    <t>ART APP
+BMMA 401
+PUBLICO</t>
+  </si>
+  <si>
+    <t>NSTP 2 
+BSTM 202
+PUBLICO</t>
+  </si>
+  <si>
+    <t>ETHICS 
+BSTM 401
+QUIZANA</t>
+  </si>
+  <si>
+    <t>PURPOCOM 
+BSIT602
+LUCENA</t>
+  </si>
+  <si>
+    <t>INTCALC
+BSCPE 201
+VILLAFLORES</t>
+  </si>
+  <si>
+    <t>MOBITECH - LEC
+BSIT 602
+CABAHUG</t>
+  </si>
+  <si>
+    <t>PROLANS - LEC
+BSCS 601
+MINGO</t>
+  </si>
+  <si>
+    <t>INTERPROG - LEC 
+BSIT 403
+PALMONES</t>
+  </si>
+  <si>
+    <t>SOFTENG2 - LEC 
+BSCS 601
+BROFAR</t>
+  </si>
+  <si>
+    <t>KEB - LEC
+BSHM 201
+LAMIS</t>
+  </si>
+  <si>
+    <t>CATERING - LEC 
+BSHM 602
+PINE</t>
+  </si>
+  <si>
+    <t>IT ELEC3
+PROLANS - LEC
+BSIT 601
+MINGO</t>
+  </si>
+  <si>
+    <t>IT - ELEC3 
+PROLANS - LEC
+BSIT 602
+MINGO</t>
+  </si>
+  <si>
+    <t>SAP - LEC
+BSIT403
+MINGO</t>
+  </si>
+  <si>
+    <t>COMPRO 2 - LEC
+BSIT203
+CABAHUG</t>
+  </si>
+  <si>
+    <t>INTERPROG - LAB 
+BSIT402
+PALMONES</t>
+  </si>
+  <si>
+    <t>INFOMNGT - LEC
+BSCS 401
+PALMONES</t>
+  </si>
+  <si>
+    <t>TOURHOSPRIN2
+HRS201
+CABRERA</t>
+  </si>
+  <si>
+    <t>STS
+BSBA 201 
+MANCILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM OJT 
+BSTM 801
+PINE </t>
+  </si>
+  <si>
+    <t>IAS CF - LEC
+BSIT 601
+CUENCA</t>
+  </si>
+  <si>
+    <t>CPE ELEC2 -
+ NETWORK1 - LEC
+BSCPE601
+ALDEMITA</t>
+  </si>
+  <si>
+    <t>MOBITECH - LEC
+BSIT 601
+CABAHUG</t>
+  </si>
+  <si>
+    <t>WESCUIS - LEC 
+HRS401
+CABRERA</t>
+  </si>
+  <si>
+    <t>SOFTDES - LEC
+BSCPE 401 
+BROFAR</t>
+  </si>
+  <si>
+    <t>MGASTRO - LEC 
+BSHM 602
+PINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPRO2 - LEC 
+BSIT203
+CABAHUG </t>
+  </si>
+  <si>
+    <t>COMORG
+BSCS601
+MERCADO</t>
+  </si>
+  <si>
+    <t>ADVERTIVE - LEC 
+BMMA601
+MARANTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPARC
+BSCS401
+MERCADO </t>
+  </si>
+  <si>
+    <t>BANCAT - LEC
+HRS 401
+CABRERA</t>
+  </si>
+  <si>
+    <t>MIS 
+BSIT 602
+BSBA 602
+GONZALEZ</t>
+  </si>
+  <si>
+    <t>ETHICS 
+BMMA 201
+QUIZANA</t>
+  </si>
+  <si>
+    <t>TOURDEVT
+BSTM 402
+BUSALPA</t>
+  </si>
+  <si>
+    <t>HM OJT
+BSHM 801
+MALTO</t>
+  </si>
+  <si>
+    <t>ETHICS 
+BSHM 403
+BSTM 402
+QUIZANA</t>
+  </si>
+  <si>
+    <t>ART APP 
+BSCPE 201
+VILLAFLORES</t>
+  </si>
+  <si>
+    <t>DISCRETE 
+BSCPE 201
+VILLAFLORES</t>
+  </si>
+  <si>
+    <t>ART APP 
+BSCPE 201
+PUBLICO</t>
+  </si>
+  <si>
+    <t>STRATMAN
+BSTM 601
+BARORO</t>
+  </si>
+  <si>
+    <t>ETHCIS 
+BSHM 403
+BSTM 402
+QUIZANA</t>
+  </si>
+  <si>
+    <t>POP
+BSIT 402
+PALOMAR</t>
+  </si>
+  <si>
+    <t>ETHICS 
+BSHM 401
+ATIENZA</t>
+  </si>
+  <si>
+    <t>BALOGMT
+BSBA 401
+LUCIDO</t>
+  </si>
+  <si>
+    <t>POP
+BSIT 403
+BSBA 402
+PALOMAR</t>
+  </si>
+  <si>
+    <t>BALOGMT
+BSBA 401
+BARORO</t>
+  </si>
+  <si>
+    <t>NSTP 2
+BSHM 202
+ACO</t>
+  </si>
+  <si>
+    <t>STS 
+BSIT 202
+PUBLICO</t>
+  </si>
+  <si>
+    <t>TECHNOP
+BSIT 401
+YEDRA</t>
+  </si>
+  <si>
+    <t>PHILGEO
+BSHM 204
+LAMIS</t>
+  </si>
+  <si>
+    <t>HUREMGT
+BSBA 601
+LUCIDO</t>
+  </si>
+  <si>
+    <t>POST PROD - LEC
+BMMA 801
+MARANTAL</t>
+  </si>
+  <si>
+    <t>ETHICS
+BSIT 203
+QUIZANA</t>
+  </si>
+  <si>
+    <t>ART APP 
+BSIT 203
+PUBLICO</t>
+  </si>
+  <si>
+    <t>BOHS
+BSCPE 601
+CUENCA</t>
+  </si>
+  <si>
+    <t>ART APP 
+BSIT 201
+PUBLICO</t>
+  </si>
+  <si>
+    <t>3D ANI - LEC
+BMMA 401
+BELLEZA</t>
+  </si>
+  <si>
+    <t>HISTOGRAPH
+BMMA 202
+MARANTAL</t>
+  </si>
+  <si>
+    <t>PURPOCOM 
+BMMA 202
+BSIT 204
+ENG</t>
+  </si>
+  <si>
+    <t>NSTP 2
+BSHM 201
+ATIENZA</t>
+  </si>
+  <si>
+    <t>NUMMET
+BSCPE 401
+CUENCA</t>
+  </si>
+  <si>
+    <t>ETHICS 
+BSCPE 401
+ENG</t>
   </si>
 </sst>
 </file>
@@ -676,15 +904,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0121FDB9-FB33-4371-A2EE-408B66A5C16D}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G25"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,429 +1258,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2"/>
@@ -1466,105 +1691,105 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -1593,219 +1818,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2"/>
@@ -1816,53 +2041,53 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="13" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1"/>
@@ -1873,231 +2098,231 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>70</v>
+      <c r="B19" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>70</v>
+      <c r="B20" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -2125,30 +2350,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
@@ -2159,7 +2384,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1"/>
@@ -2170,7 +2395,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1"/>
@@ -2181,7 +2406,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1"/>
@@ -2192,7 +2417,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1"/>
@@ -2203,7 +2428,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1"/>
@@ -2214,7 +2439,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1"/>
@@ -2225,7 +2450,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1"/>
@@ -2236,7 +2461,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1"/>
@@ -2247,7 +2472,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2"/>
@@ -2258,7 +2483,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1"/>
@@ -2269,7 +2494,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1"/>
@@ -2280,7 +2505,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1"/>
@@ -2291,7 +2516,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1"/>
@@ -2302,7 +2527,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1"/>
@@ -2313,7 +2538,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1"/>
@@ -2324,7 +2549,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1"/>
@@ -2335,29 +2560,29 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1"/>
@@ -2368,7 +2593,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1"/>
@@ -2379,7 +2604,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="1"/>
@@ -2390,7 +2615,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="1"/>
@@ -2401,7 +2626,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="1"/>
@@ -2420,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6C77E1-DBFC-4346-9675-49D953C629C5}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,533 +2660,1626 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>100</v>
+      <c r="B20" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>100</v>
+      <c r="B21" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>100</v>
+      <c r="B22" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843DD9BE-A43E-4CFA-A20D-E1665F63DDC0}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F8E2D9-9497-4A5B-843A-CEF73AD2334A}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
     </row>

--- a/assets/Schedules/stiSched.xlsx
+++ b/assets/Schedules/stiSched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILES\COLLEGE\Thesis Code\STI ONN\assets\Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C19B761-4E4B-40A7-A29C-D6739FEA13B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A30307-965C-4835-BE3E-05EFEA90D104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{55863BE4-401B-4882-B69A-C4E923D00DFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="10" xr2:uid="{55863BE4-401B-4882-B69A-C4E923D00DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Room 301" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,11 @@
     <sheet name="Room 304" sheetId="4" r:id="rId4"/>
     <sheet name="Room 305" sheetId="5" r:id="rId5"/>
     <sheet name="Room 306" sheetId="6" r:id="rId6"/>
+    <sheet name="Room 307" sheetId="7" r:id="rId7"/>
+    <sheet name="Room 308" sheetId="8" r:id="rId8"/>
+    <sheet name="Room 309" sheetId="9" r:id="rId9"/>
+    <sheet name="Room 310" sheetId="10" r:id="rId10"/>
+    <sheet name="Room 311" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="267">
   <si>
     <t>Time</t>
   </si>
@@ -822,6 +827,543 @@
     <t>ETHICS 
 BSCPE 401
 ENG</t>
+  </si>
+  <si>
+    <t>KEB - LEC
+BSHM 204
+PINE</t>
+  </si>
+  <si>
+    <t>ENTREPHM
+BSHM 602
+CABRERA</t>
+  </si>
+  <si>
+    <t>POP 
+BSCS 401
+BSHM 602
+PALOMAR</t>
+  </si>
+  <si>
+    <t>DESALGO
+BSCS 401
+MANCILLA</t>
+  </si>
+  <si>
+    <t>HCI - LEC
+BSCS 401
+MANCILLA</t>
+  </si>
+  <si>
+    <t>DISCRETE 1
+BSIT 204
+VILLAFLORES</t>
+  </si>
+  <si>
+    <t>EUTHENICS 2 
+BMMA 602
+HRS 401
+DELOS REYES</t>
+  </si>
+  <si>
+    <t>MULTIPUB - LEC 
+BMMA 602
+REMOQUILLO</t>
+  </si>
+  <si>
+    <t>CATERING - LEC
+BSHM 601
+PINE</t>
+  </si>
+  <si>
+    <t>MODESIM 
+BSCS 601
+BROFAR</t>
+  </si>
+  <si>
+    <t>TPPP - LEC 
+BSTM 402
+BUSALPA</t>
+  </si>
+  <si>
+    <t>MMA FELEC 2
+ADVWEBSIGN - LEC
+BMMA 602
+DALUDADO</t>
+  </si>
+  <si>
+    <t>PQTOOLS - LEC
+BSBA 201
+BOBIS</t>
+  </si>
+  <si>
+    <t>MULTIPUB - LEC 
+BMMA 601
+REMOQUILLO</t>
+  </si>
+  <si>
+    <t>ACT ELEC6
+IAS CF - LEC
+ACT 401
+CUENCA</t>
+  </si>
+  <si>
+    <t>TRAVELWRIT - LEC
+BSTM 601
+BUSALPA</t>
+  </si>
+  <si>
+    <t>GBOOKS
+BSCS 401
+LUCENA</t>
+  </si>
+  <si>
+    <t>BM OJT
+BSBA 801
+BARORO</t>
+  </si>
+  <si>
+    <t>WEBTECH - LEC 
+BSIT 602
+DALUDADO</t>
+  </si>
+  <si>
+    <t>CS ELEC1
+WEBPROG - LEC
+BSCS 401
+DALUDADO</t>
+  </si>
+  <si>
+    <t>GBOOKS
+BSIT 602
+LUCENA</t>
+  </si>
+  <si>
+    <t>HISTOGRAPH
+BMMA 201
+MARANTAL</t>
+  </si>
+  <si>
+    <t>MICE - LAB 
+BSHM 401
+MERCADO</t>
+  </si>
+  <si>
+    <t>MICE - LEC
+BSHM 401
+MERCADO</t>
+  </si>
+  <si>
+    <t>MICE - LEC
+BSHM 402
+MERCADO</t>
+  </si>
+  <si>
+    <t>MICE - LAB 
+BSHM 402
+MERCADO</t>
+  </si>
+  <si>
+    <t>ERGONOMICS - LEC
+BSHM 601
+MERCADO</t>
+  </si>
+  <si>
+    <t>ERGONOMICS - LAB
+BSHM 601
+MERCADO</t>
+  </si>
+  <si>
+    <t>MICE - LEC
+BSTM 401
+MERCADO</t>
+  </si>
+  <si>
+    <t>MICE - LAB 
+BSTM 401
+MERCADO</t>
+  </si>
+  <si>
+    <t>MICE - LEC
+BSHM401
+BSTM402
+MERCADO</t>
+  </si>
+  <si>
+    <t>MICE - LAB 
+BSHM401
+BSTM402
+MERCADO</t>
+  </si>
+  <si>
+    <t>HUREMGT
+BSBA 602
+LUCIDO</t>
+  </si>
+  <si>
+    <t>PROJMAN
+BSBA 601 
+LUCIDO</t>
+  </si>
+  <si>
+    <t>NSTP 2
+BSTM 201
+ATIENZA</t>
+  </si>
+  <si>
+    <t>PURPOCOM
+BSHM 203
+ENG</t>
+  </si>
+  <si>
+    <t>NSTP 2
+BSHM 201
+PALOMAR</t>
+  </si>
+  <si>
+    <t>STRATMAN
+BSBA 601
+BOBIS</t>
+  </si>
+  <si>
+    <t>NSTP 2
+BSIT 202
+DELOS REYES</t>
+  </si>
+  <si>
+    <t>PURPOCOM
+BMMA 201
+UNIDA</t>
+  </si>
+  <si>
+    <t>STS 
+BSIT 201
+ALDEMITA</t>
+  </si>
+  <si>
+    <t>PURPOCOM
+BSTM 203
+PALOMAR</t>
+  </si>
+  <si>
+    <t>POP 
+BSCPE 401
+DELOS REYES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSTP 
+BMMA 201
+VILLAFLORES
+</t>
+  </si>
+  <si>
+    <t>POP 
+BMMA 401
+QUIZANA</t>
+  </si>
+  <si>
+    <t>TRANSPOMGT
+BSTM 601
+BUSALPA</t>
+  </si>
+  <si>
+    <t>ETHICS
+BSHM 402
+DELOS REYES</t>
+  </si>
+  <si>
+    <t>CPTOOLS
+BMMA 202
+HRS 201
+MANCILLA</t>
+  </si>
+  <si>
+    <t>INFOMGT - LAB
+BSCS 401
+MINGO</t>
+  </si>
+  <si>
+    <t>SAP - LAB
+BSIT 401
+MINGO</t>
+  </si>
+  <si>
+    <t>INFOMGT - LAB
+BSCS 401
+PALMONES</t>
+  </si>
+  <si>
+    <t>ACT RESEARCH - LAB
+BSA 601
+LUCIDO</t>
+  </si>
+  <si>
+    <t>IT ELEC 3
+PROLANS - LAB
+BSIT 601
+MINGO</t>
+  </si>
+  <si>
+    <t>ACT ELEC 5
+INTEPROG - LAB
+ACT 401
+BSIT 403
+PALMONES</t>
+  </si>
+  <si>
+    <t>PROLANS - LAB
+BSCS 601
+MINGO</t>
+  </si>
+  <si>
+    <t>CPE ELEC 2 
+NETWORK 1 - LAB
+BSCPE 601
+ORUGA</t>
+  </si>
+  <si>
+    <t>GAMEPROG
+BSCS 601
+DALUDADO</t>
+  </si>
+  <si>
+    <t>SAP - LAB
+BSIT 403
+MINGO</t>
+  </si>
+  <si>
+    <t>SOFTDES - LAB
+BSCPE 401
+BROFAR</t>
+  </si>
+  <si>
+    <t>IT ELEC 3
+PROLANS - LAB
+BSIT 602
+MINGO</t>
+  </si>
+  <si>
+    <t>SOFTENG 2 - LAB
+BSCS 601
+BROFAR</t>
+  </si>
+  <si>
+    <t>MOBITECH - LAB
+BSIT  602
+CABAHUG</t>
+  </si>
+  <si>
+    <t>TRAVELWRIT - LAB
+BSTM 601
+TM</t>
+  </si>
+  <si>
+    <t>IAS CF - LAB
+BSIT 602
+CUENCA</t>
+  </si>
+  <si>
+    <t>COPRO 2 - LAB
+BSIT 201
+CABAHUG</t>
+  </si>
+  <si>
+    <t>COPRO 2 - LAB
+BSIT 202
+CABAHUG</t>
+  </si>
+  <si>
+    <t>INFOMGT - LAB
+BSIT 402
+PALMONES</t>
+  </si>
+  <si>
+    <t>COPRO 2 - LAB
+BSIT 203
+CABAHUG</t>
+  </si>
+  <si>
+    <t>INTEPROG - LAB
+BSIT 402 
+PALMONES</t>
+  </si>
+  <si>
+    <t>INVTY - LAB
+BSBA 601
+BARORO</t>
+  </si>
+  <si>
+    <t>NETWORK 1 - LAB
+BSIT 402
+ORUGA</t>
+  </si>
+  <si>
+    <t>PQTOOLS - LAB
+BSBA 202
+CABAHUG</t>
+  </si>
+  <si>
+    <t>CPTOOLS- LAB
+BSHM 202
+CABAHUG</t>
+  </si>
+  <si>
+    <t>CPTOOLS- LAB
+BSHM 204 
+BSBA 204
+PALMONES</t>
+  </si>
+  <si>
+    <t>TPPP - LAB
+BSTM 401
+TM</t>
+  </si>
+  <si>
+    <t>IAS CF - LAB
+BSIT 601
+CUENCA</t>
+  </si>
+  <si>
+    <t>TPPP - LAB
+BSTM 402
+TM</t>
+  </si>
+  <si>
+    <t>FABM 1
+ABM 12
+DEONIO</t>
+  </si>
+  <si>
+    <t>PQTOOLS - LAB
+BSBA 201
+BOBIS</t>
+  </si>
+  <si>
+    <t>FRONT OFC 2
+TOP 11
+HM</t>
+  </si>
+  <si>
+    <t>WEBTECH -LAB
+BSIT 601
+DALUDADO</t>
+  </si>
+  <si>
+    <t>CPTOOLS - LAB
+BSBA 201
+MINGO</t>
+  </si>
+  <si>
+    <t>CPTOOLS - LAB
+BSHM 203
+MANCILLA</t>
+  </si>
+  <si>
+    <t>WEBTECH - LAB 
+BSIT 602
+DALUDADO</t>
+  </si>
+  <si>
+    <t>CPTOOLS - LAB
+BMMA 201
+MANCILLA</t>
+  </si>
+  <si>
+    <t>CPTOOLS - LAB
+BSTM 202
+MANCILLA</t>
+  </si>
+  <si>
+    <t>TOURINFOMGT
+TOP 21
+TM PT</t>
+  </si>
+  <si>
+    <t>WEBTECH 
+BSIT 602
+DALUDADO</t>
+  </si>
+  <si>
+    <t>INT E TRAVEL
+TOP 21
+TM PT</t>
+  </si>
+  <si>
+    <t>CPTOOLS - LAB
+BSBA 202
+DALUDADO</t>
+  </si>
+  <si>
+    <t>POST PROD - LAB
+BMMA 801
+MARANTAL</t>
+  </si>
+  <si>
+    <t>MULTIPUB - LAB
+BMMA 602
+REMOQUILLO</t>
+  </si>
+  <si>
+    <t>MMA FELEC 2
+ADVWEBSIGN - LAB
+BMMA 601
+DALUDADO</t>
+  </si>
+  <si>
+    <t>MULTIPUB - LAB
+BMMA 601
+REMOQUILLO</t>
+  </si>
+  <si>
+    <t>MMA FELEC 2
+ADVWEBSIGN - LAB
+BMMA 602
+DALUDADO</t>
+  </si>
+  <si>
+    <t>CPTOOLS - LAB
+BSTM 203
+MANCILLA</t>
+  </si>
+  <si>
+    <t>PORTEXH - LAB
+BMMA 801
+MARANTAL</t>
+  </si>
+  <si>
+    <t>3D ANI - LAB
+BMMA 401
+BELLEZA</t>
+  </si>
+  <si>
+    <t>FILPROD - LAB
+BMMA 602
+REMOQUILLO</t>
+  </si>
+  <si>
+    <t>ADVERTIVE - LAB
+BMMA 601
+MARANTAL</t>
+  </si>
+  <si>
+    <t>FILPROD - LAB
+BMMA 601
+REMOQUILLO</t>
+  </si>
+  <si>
+    <t>ADVERTIVE - LAB
+BMMA 602
+MARANTAL</t>
+  </si>
+  <si>
+    <t>BRANDCOM - LAB
+BMMA 401
+ACO</t>
+  </si>
+  <si>
+    <t>OOP - LAB 
+BSCPE 201
+CABAHUG</t>
   </si>
 </sst>
 </file>
@@ -1798,6 +2340,1072 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EE6225-585F-4A27-96BB-4973D27C231B}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F1B946-863B-49AE-9978-9A24F5E83D02}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736D60E9-7251-4C66-819B-578F08BB8B75}">
   <dimension ref="A1:G25"/>
@@ -2335,18 +3943,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D51AFDD-2C99-49F3-A42D-9A1C179477AD}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G25"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2372,236 +3981,460 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -3726,8 +5559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F8E2D9-9497-4A5B-843A-CEF73AD2334A}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4286,4 +6119,1493 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07459269-44EE-4C5E-85C3-EC7184F8462F}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BB8A5B-597F-43D2-9256-06B4D244B202}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CF6586-B7E0-4F6A-99E0-39655ED7E275}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>